--- a/db/tmk/bb2.xlsx
+++ b/db/tmk/bb2.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$BM$1:$BM$228</definedName>
     <definedName name="bb2_" localSheetId="0">Sheet1!$A$2:$CH$228</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -118,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="2016">
   <si>
     <t>Verklaring 1864</t>
   </si>
@@ -6130,6 +6131,42 @@
   </si>
   <si>
     <t>1850 en 1851</t>
+  </si>
+  <si>
+    <t>1907 en 1911</t>
+  </si>
+  <si>
+    <t>1885 en 1886</t>
+  </si>
+  <si>
+    <t>1888 en 1892</t>
+  </si>
+  <si>
+    <t>1901 en 1903</t>
+  </si>
+  <si>
+    <t>1888 en 1899</t>
+  </si>
+  <si>
+    <t>1887, '88</t>
+  </si>
+  <si>
+    <t>1905 en 1906</t>
+  </si>
+  <si>
+    <t>1847/48</t>
+  </si>
+  <si>
+    <t>1847 en '48</t>
+  </si>
+  <si>
+    <t>1845 en 1846</t>
+  </si>
+  <si>
+    <t>1885 en 1887</t>
+  </si>
+  <si>
+    <t>1901 en 1902</t>
   </si>
 </sst>
 </file>
@@ -6492,9 +6529,9 @@
   <dimension ref="A1:CH228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BL1" sqref="BL1"/>
-      <selection pane="bottomLeft" activeCell="BQ124" sqref="BQ124"/>
+      <selection pane="bottomLeft" activeCell="BQ163" sqref="BQ163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9301,11 +9338,11 @@
         <v>196</v>
       </c>
       <c r="BO58" t="str">
-        <f t="shared" ref="BO58:BO121" si="0">MID(BM58, 12, 4)</f>
+        <f t="shared" ref="BO58:BO118" si="0">MID(BM58, 12, 4)</f>
         <v>1852</v>
       </c>
       <c r="BP58" t="str">
-        <f t="shared" ref="BP58:BP121" si="1">MID(BM58, 39,4)</f>
+        <f t="shared" ref="BP58:BP87" si="1">MID(BM58, 39,4)</f>
         <v>1869</v>
       </c>
       <c r="BQ58" s="1"/>
@@ -9355,6 +9392,9 @@
         <f t="shared" si="0"/>
         <v>1852</v>
       </c>
+      <c r="BQ59">
+        <v>1902</v>
+      </c>
       <c r="BV59" s="1" t="s">
         <v>470</v>
       </c>
@@ -9396,6 +9436,9 @@
       <c r="BO60" t="str">
         <f t="shared" si="0"/>
         <v>1852</v>
+      </c>
+      <c r="BQ60">
+        <v>1902</v>
       </c>
       <c r="BV60" s="1" t="s">
         <v>470</v>
@@ -9539,6 +9582,9 @@
         <f t="shared" si="0"/>
         <v>1858</v>
       </c>
+      <c r="BQ63" t="s">
+        <v>1995</v>
+      </c>
       <c r="BV63" s="1" t="s">
         <v>503</v>
       </c>
@@ -9679,6 +9725,9 @@
         <f t="shared" si="0"/>
         <v>1855</v>
       </c>
+      <c r="BQ66">
+        <v>1904</v>
+      </c>
       <c r="BV66" s="1" t="s">
         <v>529</v>
       </c>
@@ -9819,6 +9868,9 @@
         <f t="shared" si="0"/>
         <v>1853</v>
       </c>
+      <c r="BQ69">
+        <v>1904</v>
+      </c>
       <c r="BV69" s="1" t="s">
         <v>552</v>
       </c>
@@ -9956,6 +10008,9 @@
       <c r="BO72" t="s">
         <v>1998</v>
       </c>
+      <c r="BQ72">
+        <v>1900</v>
+      </c>
       <c r="BV72" s="1" t="s">
         <v>577</v>
       </c>
@@ -10098,6 +10153,9 @@
         <f t="shared" si="0"/>
         <v>1852</v>
       </c>
+      <c r="BQ75">
+        <v>1902</v>
+      </c>
       <c r="BV75" s="1" t="s">
         <v>602</v>
       </c>
@@ -10139,6 +10197,9 @@
       <c r="BO76" t="str">
         <f t="shared" si="0"/>
         <v>1852</v>
+      </c>
+      <c r="BQ76">
+        <v>1923</v>
       </c>
       <c r="BV76" s="1" t="s">
         <v>602</v>
@@ -10333,6 +10394,9 @@
         <f t="shared" si="0"/>
         <v>1857</v>
       </c>
+      <c r="BQ80">
+        <v>1895</v>
+      </c>
       <c r="BV80" s="1" t="s">
         <v>637</v>
       </c>
@@ -10473,6 +10537,9 @@
         <f t="shared" si="0"/>
         <v>1855</v>
       </c>
+      <c r="BQ83" t="s">
+        <v>2004</v>
+      </c>
       <c r="BV83" s="1" t="s">
         <v>668</v>
       </c>
@@ -10514,6 +10581,9 @@
       <c r="BO84" t="str">
         <f t="shared" si="0"/>
         <v>1855</v>
+      </c>
+      <c r="BQ84" t="s">
+        <v>2005</v>
       </c>
       <c r="BV84" s="1" t="s">
         <v>668</v>
@@ -10862,6 +10932,9 @@
         <f t="shared" si="0"/>
         <v>1851</v>
       </c>
+      <c r="BQ91">
+        <v>1914</v>
+      </c>
       <c r="BV91" s="1" t="s">
         <v>727</v>
       </c>
@@ -11002,6 +11075,9 @@
         <f t="shared" si="0"/>
         <v>1851</v>
       </c>
+      <c r="BQ94">
+        <v>1902</v>
+      </c>
       <c r="BV94" s="1" t="s">
         <v>759</v>
       </c>
@@ -11039,6 +11115,9 @@
       </c>
       <c r="BM95" s="1" t="s">
         <v>785</v>
+      </c>
+      <c r="BQ95">
+        <v>1933</v>
       </c>
       <c r="BV95" s="1" t="s">
         <v>759</v>
@@ -11233,6 +11312,9 @@
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
+      <c r="BQ99" t="s">
+        <v>2006</v>
+      </c>
       <c r="BV99" s="1" t="s">
         <v>795</v>
       </c>
@@ -11370,6 +11452,9 @@
       <c r="BO102" t="s">
         <v>2001</v>
       </c>
+      <c r="BQ102">
+        <v>1892</v>
+      </c>
       <c r="BV102" s="1" t="s">
         <v>829</v>
       </c>
@@ -11410,6 +11495,9 @@
       </c>
       <c r="BO103" t="s">
         <v>2001</v>
+      </c>
+      <c r="BQ103">
+        <v>1892</v>
       </c>
       <c r="BV103" s="1" t="s">
         <v>829</v>
@@ -11551,6 +11639,9 @@
         <f t="shared" si="0"/>
         <v>1842</v>
       </c>
+      <c r="BQ106">
+        <v>1906</v>
+      </c>
       <c r="BV106" s="1" t="s">
         <v>862</v>
       </c>
@@ -11593,6 +11684,9 @@
         <f t="shared" si="0"/>
         <v>1842</v>
       </c>
+      <c r="BQ107">
+        <v>1910</v>
+      </c>
       <c r="BV107" s="1" t="s">
         <v>862</v>
       </c>
@@ -11725,6 +11819,9 @@
         <f t="shared" si="0"/>
         <v>1847</v>
       </c>
+      <c r="BQ110">
+        <v>1886</v>
+      </c>
       <c r="BV110" s="1" t="s">
         <v>895</v>
       </c>
@@ -11766,6 +11863,9 @@
       <c r="BO111" t="str">
         <f t="shared" si="0"/>
         <v>1847</v>
+      </c>
+      <c r="BQ111">
+        <v>1812</v>
       </c>
       <c r="BV111" s="1" t="s">
         <v>895</v>
@@ -11960,6 +12060,9 @@
         <f t="shared" si="0"/>
         <v>1848</v>
       </c>
+      <c r="BQ115" t="s">
+        <v>2007</v>
+      </c>
       <c r="BV115" s="1" t="s">
         <v>928</v>
       </c>
@@ -12100,6 +12203,9 @@
         <f t="shared" si="0"/>
         <v>1848</v>
       </c>
+      <c r="BQ118">
+        <v>1903</v>
+      </c>
       <c r="BV118" s="1" t="s">
         <v>958</v>
       </c>
@@ -12322,6 +12428,9 @@
       <c r="BO123" t="s">
         <v>2003</v>
       </c>
+      <c r="BQ123" t="s">
+        <v>2008</v>
+      </c>
       <c r="BV123" s="1" t="s">
         <v>991</v>
       </c>
@@ -12361,8 +12470,11 @@
         <v>1024</v>
       </c>
       <c r="BO124" t="str">
-        <f t="shared" ref="BO122:BO185" si="2">MID(BM124, 12, 4)</f>
+        <f t="shared" ref="BO124:BO185" si="2">MID(BM124, 12, 4)</f>
         <v>1850</v>
+      </c>
+      <c r="BP124">
+        <v>1854</v>
       </c>
       <c r="BV124" s="1" t="s">
         <v>1025</v>
@@ -12405,6 +12517,9 @@
       <c r="BO125" t="str">
         <f t="shared" si="2"/>
         <v>1887</v>
+      </c>
+      <c r="BP125">
+        <v>1895</v>
       </c>
       <c r="BV125" s="1" t="s">
         <v>1025</v>
@@ -12494,6 +12609,9 @@
         <f t="shared" si="2"/>
         <v>1850</v>
       </c>
+      <c r="BQ127" t="s">
+        <v>2009</v>
+      </c>
       <c r="BV127" s="1" t="s">
         <v>1025</v>
       </c>
@@ -12536,6 +12654,9 @@
         <f t="shared" si="2"/>
         <v>1847</v>
       </c>
+      <c r="BP128">
+        <v>1855</v>
+      </c>
       <c r="BV128" s="1" t="s">
         <v>1060</v>
       </c>
@@ -12580,6 +12701,9 @@
       <c r="BO129" t="str">
         <f t="shared" si="2"/>
         <v>1847</v>
+      </c>
+      <c r="BP129">
+        <v>1855</v>
       </c>
       <c r="BQ129" s="1"/>
       <c r="BR129" s="1"/>
@@ -12628,6 +12752,9 @@
         <f t="shared" si="2"/>
         <v>1847</v>
       </c>
+      <c r="BQ130" t="s">
+        <v>2010</v>
+      </c>
       <c r="BV130" s="1" t="s">
         <v>1060</v>
       </c>
@@ -12670,6 +12797,9 @@
         <f t="shared" si="2"/>
         <v>1846</v>
       </c>
+      <c r="BP131">
+        <v>1851</v>
+      </c>
       <c r="BV131" s="1" t="s">
         <v>1085</v>
       </c>
@@ -12714,6 +12844,9 @@
       <c r="BO132" t="str">
         <f t="shared" si="2"/>
         <v>1846</v>
+      </c>
+      <c r="BP132">
+        <v>1851</v>
       </c>
       <c r="BQ132" s="1"/>
       <c r="BR132" s="1"/>
@@ -12762,6 +12895,9 @@
         <f t="shared" si="2"/>
         <v>1844</v>
       </c>
+      <c r="BQ133">
+        <v>1908</v>
+      </c>
       <c r="BV133" s="1" t="s">
         <v>1085</v>
       </c>
@@ -12804,6 +12940,9 @@
         <f t="shared" si="2"/>
         <v>1846</v>
       </c>
+      <c r="BP134">
+        <v>1861</v>
+      </c>
       <c r="BV134" s="1" t="s">
         <v>1109</v>
       </c>
@@ -12848,6 +12987,9 @@
       <c r="BO135" t="str">
         <f t="shared" si="2"/>
         <v>1846</v>
+      </c>
+      <c r="BP135">
+        <v>1861</v>
       </c>
       <c r="BQ135" s="1"/>
       <c r="BR135" s="1"/>
@@ -12896,6 +13038,9 @@
         <f t="shared" si="2"/>
         <v>1846</v>
       </c>
+      <c r="BQ136">
+        <v>1882</v>
+      </c>
       <c r="BV136" s="1" t="s">
         <v>1109</v>
       </c>
@@ -12940,6 +13085,9 @@
       <c r="BO137" t="str">
         <f t="shared" si="2"/>
         <v>1846</v>
+      </c>
+      <c r="BP137">
+        <v>1860</v>
       </c>
       <c r="BQ137" s="1"/>
       <c r="BR137" s="1"/>
@@ -12988,6 +13136,9 @@
         <f t="shared" si="2"/>
         <v>1846</v>
       </c>
+      <c r="BQ138" t="s">
+        <v>1996</v>
+      </c>
       <c r="BV138" s="1" t="s">
         <v>1133</v>
       </c>
@@ -13030,6 +13181,9 @@
         <f t="shared" si="2"/>
         <v>1846</v>
       </c>
+      <c r="BP139">
+        <v>1860</v>
+      </c>
       <c r="BV139" s="1" t="s">
         <v>1133</v>
       </c>
@@ -13072,6 +13226,9 @@
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
+      <c r="BP140">
+        <v>1860</v>
+      </c>
       <c r="BV140" s="1" t="s">
         <v>1158</v>
       </c>
@@ -13116,6 +13273,9 @@
       <c r="BO141" t="str">
         <f t="shared" si="2"/>
         <v>1856</v>
+      </c>
+      <c r="BP141">
+        <v>1860</v>
       </c>
       <c r="BQ141" s="1"/>
       <c r="BR141" s="1"/>
@@ -13164,6 +13324,9 @@
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
+      <c r="BP142">
+        <v>1860</v>
+      </c>
       <c r="BV142" s="1" t="s">
         <v>1158</v>
       </c>
@@ -13206,6 +13369,9 @@
         <f t="shared" si="2"/>
         <v>1876</v>
       </c>
+      <c r="BQ143">
+        <v>1913</v>
+      </c>
       <c r="BV143" s="1" t="s">
         <v>1158</v>
       </c>
@@ -13248,6 +13414,9 @@
         <f t="shared" si="2"/>
         <v>1849</v>
       </c>
+      <c r="BP144">
+        <v>1857</v>
+      </c>
       <c r="BV144" s="1" t="s">
         <v>1191</v>
       </c>
@@ -13292,6 +13461,9 @@
       <c r="BO145" t="str">
         <f t="shared" si="2"/>
         <v>1849</v>
+      </c>
+      <c r="BP145">
+        <v>1857</v>
       </c>
       <c r="BQ145" s="1"/>
       <c r="BR145" s="1"/>
@@ -13340,6 +13512,9 @@
         <f t="shared" si="2"/>
         <v>1849</v>
       </c>
+      <c r="BQ146">
+        <v>1899</v>
+      </c>
       <c r="BV146" s="1" t="s">
         <v>1191</v>
       </c>
@@ -13378,9 +13553,11 @@
       <c r="BM147" s="1" t="s">
         <v>1216</v>
       </c>
-      <c r="BO147" t="str">
-        <f t="shared" si="2"/>
-        <v>1847</v>
+      <c r="BO147" t="s">
+        <v>2011</v>
+      </c>
+      <c r="BP147">
+        <v>1858</v>
       </c>
       <c r="BV147" s="1" t="s">
         <v>1217</v>
@@ -13423,9 +13600,11 @@
       <c r="BN148" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BO148" t="str">
-        <f t="shared" si="2"/>
-        <v>1847</v>
+      <c r="BO148" t="s">
+        <v>2011</v>
+      </c>
+      <c r="BP148">
+        <v>1858</v>
       </c>
       <c r="BQ148" s="1"/>
       <c r="BR148" s="1"/>
@@ -13470,9 +13649,11 @@
       <c r="BM149" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="BO149" t="str">
-        <f t="shared" si="2"/>
-        <v>1847</v>
+      <c r="BO149" t="s">
+        <v>2012</v>
+      </c>
+      <c r="BQ149">
+        <v>1889</v>
       </c>
       <c r="BV149" s="1" t="s">
         <v>1217</v>
@@ -13516,6 +13697,9 @@
         <f t="shared" si="2"/>
         <v>1846</v>
       </c>
+      <c r="BP150">
+        <v>1850</v>
+      </c>
       <c r="BV150" s="1" t="s">
         <v>1241</v>
       </c>
@@ -13560,6 +13744,9 @@
       <c r="BO151" t="str">
         <f t="shared" si="2"/>
         <v>1846</v>
+      </c>
+      <c r="BP151">
+        <v>1850</v>
       </c>
       <c r="BQ151" s="1"/>
       <c r="BR151" s="1"/>
@@ -13604,9 +13791,11 @@
       <c r="BM152" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="BO152" t="str">
-        <f t="shared" si="2"/>
-        <v>1845</v>
+      <c r="BO152" t="s">
+        <v>2013</v>
+      </c>
+      <c r="BQ152" t="s">
+        <v>2014</v>
       </c>
       <c r="BV152" s="1" t="s">
         <v>1241</v>
@@ -13648,6 +13837,9 @@
       </c>
       <c r="BN153" s="1" t="s">
         <v>196</v>
+      </c>
+      <c r="BP153">
+        <v>1850</v>
       </c>
       <c r="BQ153" s="1"/>
       <c r="BR153" s="1"/>
@@ -13695,6 +13887,9 @@
       <c r="BN154" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="BP154">
+        <v>1850</v>
+      </c>
       <c r="BQ154" s="1"/>
       <c r="BR154" s="1"/>
       <c r="BS154" s="1"/>
@@ -13741,6 +13936,9 @@
       <c r="BN155" s="1" t="s">
         <v>1280</v>
       </c>
+      <c r="BP155">
+        <v>1850</v>
+      </c>
       <c r="BQ155" s="1"/>
       <c r="BR155" s="1"/>
       <c r="BS155" s="1"/>
@@ -13826,6 +14024,9 @@
         <f t="shared" si="2"/>
         <v>1844</v>
       </c>
+      <c r="BP157">
+        <v>1852</v>
+      </c>
       <c r="BV157" s="1" t="s">
         <v>1300</v>
       </c>
@@ -13870,6 +14071,9 @@
       <c r="BO158" t="str">
         <f t="shared" si="2"/>
         <v>1844</v>
+      </c>
+      <c r="BP158">
+        <v>1852</v>
       </c>
       <c r="BQ158" s="1"/>
       <c r="BR158" s="1"/>
@@ -13921,6 +14125,9 @@
         <f t="shared" si="2"/>
         <v>1844</v>
       </c>
+      <c r="BP159">
+        <v>1852</v>
+      </c>
       <c r="BQ159" s="1"/>
       <c r="BR159" s="1"/>
       <c r="BS159" s="1"/>
@@ -13968,6 +14175,9 @@
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
+      <c r="BP160">
+        <v>1861</v>
+      </c>
       <c r="BV160" s="1" t="s">
         <v>1323</v>
       </c>
@@ -14013,7 +14223,12 @@
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
-      <c r="BQ161" s="1"/>
+      <c r="BP161">
+        <v>1861</v>
+      </c>
+      <c r="BQ161" s="1" t="s">
+        <v>2015</v>
+      </c>
       <c r="BR161" s="1"/>
       <c r="BS161" s="1"/>
       <c r="BT161" s="1"/>
@@ -14063,7 +14278,12 @@
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
-      <c r="BQ162" s="1"/>
+      <c r="BP162">
+        <v>1861</v>
+      </c>
+      <c r="BQ162" s="1" t="s">
+        <v>2015</v>
+      </c>
       <c r="BR162" s="1"/>
       <c r="BS162" s="1"/>
       <c r="BT162" s="1"/>
@@ -14152,6 +14372,9 @@
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
+      <c r="BP164">
+        <v>1860</v>
+      </c>
       <c r="BV164" s="1" t="s">
         <v>1323</v>
       </c>
@@ -14193,6 +14416,9 @@
       <c r="BO165" t="str">
         <f t="shared" si="2"/>
         <v>1836</v>
+      </c>
+      <c r="BP165">
+        <v>1860</v>
       </c>
       <c r="BV165" s="1" t="s">
         <v>1365</v>
@@ -14328,6 +14554,9 @@
         <f t="shared" si="2"/>
         <v>1838</v>
       </c>
+      <c r="BP168">
+        <v>1855</v>
+      </c>
       <c r="BV168" s="1" t="s">
         <v>1390</v>
       </c>
@@ -14372,6 +14601,9 @@
       <c r="BO169" t="str">
         <f t="shared" si="2"/>
         <v>1838</v>
+      </c>
+      <c r="BP169">
+        <v>1855</v>
       </c>
       <c r="BQ169" s="1"/>
       <c r="BR169" s="1"/>
@@ -14423,6 +14655,9 @@
         <f t="shared" si="2"/>
         <v>1838</v>
       </c>
+      <c r="BP170">
+        <v>1855</v>
+      </c>
       <c r="BQ170" s="1"/>
       <c r="BR170" s="1"/>
       <c r="BS170" s="1"/>
@@ -14512,6 +14747,9 @@
         <f t="shared" si="2"/>
         <v>1837</v>
       </c>
+      <c r="BP172">
+        <v>1851</v>
+      </c>
       <c r="BV172" s="1" t="s">
         <v>1422</v>
       </c>
@@ -14654,6 +14892,9 @@
         <f t="shared" si="2"/>
         <v>1836</v>
       </c>
+      <c r="BP175">
+        <v>1856</v>
+      </c>
       <c r="BV175" s="1" t="s">
         <v>1448</v>
       </c>
@@ -14698,6 +14939,9 @@
       <c r="BO176" t="str">
         <f t="shared" si="2"/>
         <v>1836</v>
+      </c>
+      <c r="BP176">
+        <v>1856</v>
       </c>
       <c r="BQ176" s="1"/>
       <c r="BR176" s="1"/>
@@ -14788,6 +15032,9 @@
         <f t="shared" si="2"/>
         <v>1857</v>
       </c>
+      <c r="BP178">
+        <v>1864</v>
+      </c>
       <c r="BV178" s="1" t="s">
         <v>1474</v>
       </c>
@@ -14832,6 +15079,9 @@
       <c r="BO179" t="str">
         <f t="shared" si="2"/>
         <v>1857</v>
+      </c>
+      <c r="BP179">
+        <v>1864</v>
       </c>
       <c r="BQ179" s="1"/>
       <c r="BR179" s="1"/>
@@ -14922,6 +15172,9 @@
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
+      <c r="BP181">
+        <v>1864</v>
+      </c>
       <c r="BV181" s="1" t="s">
         <v>1498</v>
       </c>
@@ -14966,6 +15219,9 @@
       <c r="BO182" t="str">
         <f t="shared" si="2"/>
         <v>1856</v>
+      </c>
+      <c r="BP182">
+        <v>1864</v>
       </c>
       <c r="BQ182" s="1"/>
       <c r="BR182" s="1"/>
@@ -15017,6 +15273,9 @@
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
+      <c r="BP183">
+        <v>1864</v>
+      </c>
       <c r="BQ183" s="1"/>
       <c r="BR183" s="1"/>
       <c r="BS183" s="1"/>
@@ -15106,6 +15365,9 @@
         <f t="shared" si="2"/>
         <v>1836</v>
       </c>
+      <c r="BP185">
+        <v>1863</v>
+      </c>
       <c r="BV185" s="1" t="s">
         <v>1530</v>
       </c>
@@ -15150,6 +15412,9 @@
       <c r="BO186" t="str">
         <f t="shared" ref="BO186:BO227" si="3">MID(BM186, 12, 4)</f>
         <v>1836</v>
+      </c>
+      <c r="BP186">
+        <v>1863</v>
       </c>
       <c r="BQ186" s="1"/>
       <c r="BR186" s="1"/>
@@ -15281,6 +15546,9 @@
         <f t="shared" si="3"/>
         <v>1861</v>
       </c>
+      <c r="BP189">
+        <v>1870</v>
+      </c>
       <c r="BQ189" s="1"/>
       <c r="BR189" s="1"/>
       <c r="BS189" s="1"/>
@@ -15412,6 +15680,9 @@
         <f t="shared" si="3"/>
         <v>1840</v>
       </c>
+      <c r="BP192">
+        <v>1853</v>
+      </c>
       <c r="BV192" s="1" t="s">
         <v>1591</v>
       </c>
@@ -15456,6 +15727,9 @@
       <c r="BO193" t="str">
         <f t="shared" si="3"/>
         <v>1840</v>
+      </c>
+      <c r="BP193">
+        <v>1853</v>
       </c>
       <c r="BQ193" s="1"/>
       <c r="BR193" s="1"/>
@@ -15546,6 +15820,9 @@
         <f t="shared" si="3"/>
         <v>1837</v>
       </c>
+      <c r="BP195">
+        <v>1855</v>
+      </c>
       <c r="BV195" s="1" t="s">
         <v>1615</v>
       </c>
@@ -15590,6 +15867,9 @@
       <c r="BO196" t="str">
         <f t="shared" si="3"/>
         <v>1837</v>
+      </c>
+      <c r="BP196">
+        <v>1855</v>
       </c>
       <c r="BQ196" s="1"/>
       <c r="BR196" s="1"/>
@@ -15641,6 +15921,9 @@
         <f t="shared" si="3"/>
         <v>1837</v>
       </c>
+      <c r="BP197">
+        <v>1855</v>
+      </c>
       <c r="BQ197" s="1"/>
       <c r="BR197" s="1"/>
       <c r="BS197" s="1"/>
@@ -15730,6 +16013,9 @@
         <f t="shared" si="3"/>
         <v>1857</v>
       </c>
+      <c r="BP199">
+        <v>1863</v>
+      </c>
       <c r="BV199" s="1" t="s">
         <v>1647</v>
       </c>
@@ -15774,6 +16060,9 @@
       <c r="BO200" t="str">
         <f t="shared" si="3"/>
         <v>1857</v>
+      </c>
+      <c r="BP200">
+        <v>1863</v>
       </c>
       <c r="BQ200" s="1"/>
       <c r="BR200" s="1"/>
@@ -15864,6 +16153,9 @@
         <f t="shared" si="3"/>
         <v>1857</v>
       </c>
+      <c r="BP202">
+        <v>1863</v>
+      </c>
       <c r="BV202" s="1" t="s">
         <v>1670</v>
       </c>
@@ -15908,6 +16200,9 @@
       <c r="BO203" t="str">
         <f t="shared" si="3"/>
         <v>1857</v>
+      </c>
+      <c r="BP203">
+        <v>1863</v>
       </c>
       <c r="BQ203" s="1"/>
       <c r="BR203" s="1"/>
@@ -15956,6 +16251,9 @@
         <f t="shared" si="3"/>
         <v>1856</v>
       </c>
+      <c r="BP204">
+        <v>1863</v>
+      </c>
       <c r="BV204" s="1" t="s">
         <v>1687</v>
       </c>
@@ -16000,6 +16298,9 @@
       <c r="BO205" t="str">
         <f t="shared" si="3"/>
         <v>1856</v>
+      </c>
+      <c r="BP205">
+        <v>1863</v>
       </c>
       <c r="BQ205" s="1"/>
       <c r="BR205" s="1"/>
@@ -16090,6 +16391,9 @@
         <f t="shared" si="3"/>
         <v>1857</v>
       </c>
+      <c r="BP207">
+        <v>1863</v>
+      </c>
       <c r="BV207" s="1" t="s">
         <v>1712</v>
       </c>
@@ -16134,6 +16438,9 @@
       <c r="BO208" t="str">
         <f t="shared" si="3"/>
         <v>1861</v>
+      </c>
+      <c r="BP208">
+        <v>1863</v>
       </c>
       <c r="BQ208" s="1"/>
       <c r="BR208" s="1"/>
@@ -16224,6 +16531,9 @@
         <f t="shared" si="3"/>
         <v>1837</v>
       </c>
+      <c r="BP210">
+        <v>1863</v>
+      </c>
       <c r="BV210" s="1" t="s">
         <v>1737</v>
       </c>
@@ -16268,6 +16578,9 @@
       <c r="BO211" t="str">
         <f t="shared" si="3"/>
         <v>1837</v>
+      </c>
+      <c r="BP211">
+        <v>1863</v>
       </c>
       <c r="BQ211" s="1"/>
       <c r="BR211" s="1"/>
@@ -16319,6 +16632,9 @@
         <f t="shared" si="3"/>
         <v>1837</v>
       </c>
+      <c r="BP212">
+        <v>1863</v>
+      </c>
       <c r="BQ212" s="1"/>
       <c r="BR212" s="1"/>
       <c r="BS212" s="1"/>
@@ -16408,6 +16724,9 @@
         <f t="shared" si="3"/>
         <v>1843</v>
       </c>
+      <c r="BP214">
+        <v>1859</v>
+      </c>
       <c r="BV214" s="1" t="s">
         <v>1769</v>
       </c>
@@ -16452,6 +16771,9 @@
       <c r="BO215" t="str">
         <f t="shared" si="3"/>
         <v>1843</v>
+      </c>
+      <c r="BP215">
+        <v>1859</v>
       </c>
       <c r="BQ215" s="1"/>
       <c r="BR215" s="1"/>
@@ -16503,6 +16825,9 @@
         <f t="shared" si="3"/>
         <v>1843</v>
       </c>
+      <c r="BP216">
+        <v>1859</v>
+      </c>
       <c r="BQ216" s="1"/>
       <c r="BR216" s="1"/>
       <c r="BS216" s="1"/>
@@ -16550,6 +16875,9 @@
         <f t="shared" si="3"/>
         <v>1842</v>
       </c>
+      <c r="BP217">
+        <v>1864</v>
+      </c>
       <c r="BV217" s="1" t="s">
         <v>1793</v>
       </c>
@@ -16594,6 +16922,9 @@
       <c r="BO218" t="str">
         <f t="shared" si="3"/>
         <v>1842</v>
+      </c>
+      <c r="BP218">
+        <v>1864</v>
       </c>
       <c r="BQ218" s="1"/>
       <c r="BR218" s="1"/>
@@ -16645,6 +16976,9 @@
         <f t="shared" si="3"/>
         <v>1842</v>
       </c>
+      <c r="BP219">
+        <v>1864</v>
+      </c>
       <c r="BQ219" s="1"/>
       <c r="BR219" s="1"/>
       <c r="BS219" s="1"/>
@@ -16692,6 +17026,9 @@
         <f t="shared" si="3"/>
         <v>1842</v>
       </c>
+      <c r="BP220">
+        <v>1864</v>
+      </c>
       <c r="BV220" s="1" t="s">
         <v>1817</v>
       </c>
@@ -16736,6 +17073,9 @@
       <c r="BO221" t="str">
         <f t="shared" si="3"/>
         <v>1842</v>
+      </c>
+      <c r="BP221">
+        <v>1864</v>
       </c>
       <c r="BQ221" s="1"/>
       <c r="BR221" s="1"/>
@@ -16829,6 +17169,9 @@
         <f t="shared" si="3"/>
         <v>1842</v>
       </c>
+      <c r="BP223">
+        <v>1864</v>
+      </c>
       <c r="BQ223" s="1"/>
       <c r="BR223" s="1"/>
       <c r="BS223" s="1"/>
@@ -16876,6 +17219,9 @@
         <f t="shared" si="3"/>
         <v>1842</v>
       </c>
+      <c r="BP224">
+        <v>1864</v>
+      </c>
       <c r="BV224" s="1" t="s">
         <v>1850</v>
       </c>
@@ -16918,6 +17264,9 @@
         <f t="shared" si="3"/>
         <v>1842</v>
       </c>
+      <c r="BP225">
+        <v>1864</v>
+      </c>
       <c r="BV225" s="1" t="s">
         <v>1850</v>
       </c>
@@ -16962,6 +17311,9 @@
       <c r="BO226" t="str">
         <f t="shared" si="3"/>
         <v>1842</v>
+      </c>
+      <c r="BP226">
+        <v>1864</v>
       </c>
       <c r="BQ226" s="1"/>
       <c r="BR226" s="1"/>
@@ -17012,6 +17364,9 @@
       <c r="BO227" t="str">
         <f t="shared" si="3"/>
         <v>1842</v>
+      </c>
+      <c r="BP227">
+        <v>1864</v>
       </c>
       <c r="BQ227" s="1"/>
       <c r="BR227" s="1"/>

--- a/db/tmk/bb2.xlsx
+++ b/db/tmk/bb2.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$BM$1:$BM$228</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CH$228</definedName>
     <definedName name="bb2_" localSheetId="0">Sheet1!$A$2:$CH$228</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="2016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="2025">
   <si>
     <t>Verklaring 1864</t>
   </si>
@@ -6167,6 +6167,33 @@
   </si>
   <si>
     <t>1901 en 1902</t>
+  </si>
+  <si>
+    <t>1883-1884 en 1897</t>
+  </si>
+  <si>
+    <t>1887, 1888 en 1892</t>
+  </si>
+  <si>
+    <t>1888 en 1889</t>
+  </si>
+  <si>
+    <t>1887, 1895 en 1896</t>
+  </si>
+  <si>
+    <t>1897 en 1898</t>
+  </si>
+  <si>
+    <t>1891, 1903 tot 1905</t>
+  </si>
+  <si>
+    <t>1891 en 1901</t>
+  </si>
+  <si>
+    <t>1912 en '13</t>
+  </si>
+  <si>
+    <t>1836 en 1856</t>
   </si>
 </sst>
 </file>
@@ -6526,12 +6553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CH228"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BL1" sqref="BL1"/>
-      <selection pane="bottomLeft" activeCell="BQ163" sqref="BQ163"/>
+      <selection pane="bottomLeft" activeCell="BR167" sqref="BR167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6569,7 +6597,7 @@
     <col min="41" max="62" width="0" hidden="1" customWidth="1"/>
     <col min="63" max="63" width="23.85546875" hidden="1" customWidth="1"/>
     <col min="64" max="64" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="175.42578125" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="21.42578125" customWidth="1"/>
     <col min="67" max="67" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="11" bestFit="1" customWidth="1"/>
@@ -6848,7 +6876,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6880,7 +6908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -6912,7 +6940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -6944,7 +6972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -6976,7 +7004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -7008,7 +7036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -7040,7 +7068,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -7072,7 +7100,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -7104,7 +7132,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -7136,7 +7164,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -7168,7 +7196,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
@@ -7200,7 +7228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
@@ -7232,7 +7260,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>99</v>
       </c>
@@ -7264,7 +7292,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>107</v>
       </c>
@@ -7296,7 +7324,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>115</v>
       </c>
@@ -7328,7 +7356,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
@@ -7372,7 +7400,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>133</v>
       </c>
@@ -7424,7 +7452,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>141</v>
       </c>
@@ -7468,7 +7496,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>149</v>
       </c>
@@ -7520,7 +7548,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -7564,7 +7592,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>166</v>
       </c>
@@ -7616,7 +7644,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
@@ -7668,7 +7696,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>183</v>
       </c>
@@ -7712,7 +7740,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>193</v>
       </c>
@@ -7811,7 +7839,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>211</v>
       </c>
@@ -7855,7 +7883,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>220</v>
       </c>
@@ -7961,7 +7989,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>238</v>
       </c>
@@ -8005,7 +8033,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>247</v>
       </c>
@@ -8093,7 +8121,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>263</v>
       </c>
@@ -8137,7 +8165,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>272</v>
       </c>
@@ -8181,7 +8209,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>280</v>
       </c>
@@ -8232,7 +8260,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>289</v>
       </c>
@@ -8283,7 +8311,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="37" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>298</v>
       </c>
@@ -8334,7 +8362,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="38" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>307</v>
       </c>
@@ -8438,7 +8466,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>322</v>
       </c>
@@ -8482,7 +8510,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="41" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>330</v>
       </c>
@@ -8584,7 +8612,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="43" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>347</v>
       </c>
@@ -8628,7 +8656,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>358</v>
       </c>
@@ -8680,7 +8708,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>366</v>
       </c>
@@ -8782,7 +8810,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>382</v>
       </c>
@@ -8826,7 +8854,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="48" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>390</v>
       </c>
@@ -8928,7 +8956,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="50" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>407</v>
       </c>
@@ -8972,7 +9000,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>415</v>
       </c>
@@ -9071,7 +9099,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="53" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>432</v>
       </c>
@@ -9115,7 +9143,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>441</v>
       </c>
@@ -9167,7 +9195,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="55" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>450</v>
       </c>
@@ -9221,7 +9249,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="56" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>458</v>
       </c>
@@ -9275,7 +9303,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="57" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>466</v>
       </c>
@@ -9321,7 +9349,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="58" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>476</v>
       </c>
@@ -9465,7 +9493,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="61" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>500</v>
       </c>
@@ -9511,7 +9539,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="62" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>509</v>
       </c>
@@ -9610,7 +9638,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="64" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>526</v>
       </c>
@@ -9655,7 +9683,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="65" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>535</v>
       </c>
@@ -9753,7 +9781,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="67" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>550</v>
       </c>
@@ -9798,7 +9826,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="68" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>558</v>
       </c>
@@ -9896,7 +9924,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="70" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>574</v>
       </c>
@@ -9940,7 +9968,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="71" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>583</v>
       </c>
@@ -10036,7 +10064,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="73" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>599</v>
       </c>
@@ -10082,7 +10110,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="74" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>608</v>
       </c>
@@ -10226,7 +10254,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="77" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>634</v>
       </c>
@@ -10271,7 +10299,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="78" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>643</v>
       </c>
@@ -10324,7 +10352,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="79" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>650</v>
       </c>
@@ -10422,7 +10450,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="81" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>665</v>
       </c>
@@ -10467,7 +10495,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="82" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>674</v>
       </c>
@@ -10610,7 +10638,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="85" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>699</v>
       </c>
@@ -10656,7 +10684,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="86" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>709</v>
       </c>
@@ -10710,7 +10738,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="87" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>716</v>
       </c>
@@ -10736,7 +10764,9 @@
       </c>
       <c r="BQ87" s="1"/>
       <c r="BR87" s="1"/>
-      <c r="BS87" s="1"/>
+      <c r="BS87" s="1" t="s">
+        <v>2016</v>
+      </c>
       <c r="BT87" s="1"/>
       <c r="BU87" s="1"/>
       <c r="BV87" s="1" t="s">
@@ -10764,7 +10794,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="88" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>724</v>
       </c>
@@ -10809,7 +10839,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="89" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>733</v>
       </c>
@@ -10862,7 +10892,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="90" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>740</v>
       </c>
@@ -10960,7 +10990,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="92" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>756</v>
       </c>
@@ -11005,7 +11035,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="93" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>765</v>
       </c>
@@ -11144,7 +11174,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="96" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>791</v>
       </c>
@@ -11189,7 +11219,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="97" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>801</v>
       </c>
@@ -11242,7 +11272,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="98" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>809</v>
       </c>
@@ -11267,7 +11297,9 @@
       </c>
       <c r="BQ98" s="1"/>
       <c r="BR98" s="1"/>
-      <c r="BS98" s="1"/>
+      <c r="BS98" s="1" t="s">
+        <v>2006</v>
+      </c>
       <c r="BT98" s="1"/>
       <c r="BU98" s="1"/>
       <c r="BV98" s="1" t="s">
@@ -11340,7 +11372,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="100" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>825</v>
       </c>
@@ -11384,7 +11416,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="101" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>835</v>
       </c>
@@ -11524,7 +11556,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="104" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>859</v>
       </c>
@@ -11569,7 +11601,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="105" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>868</v>
       </c>
@@ -11712,7 +11744,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="108" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>891</v>
       </c>
@@ -11757,7 +11789,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="109" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>901</v>
       </c>
@@ -11892,7 +11924,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="112" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>925</v>
       </c>
@@ -11937,7 +11969,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="113" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>934</v>
       </c>
@@ -11990,7 +12022,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="114" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>941</v>
       </c>
@@ -12088,7 +12120,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="116" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>956</v>
       </c>
@@ -12133,7 +12165,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="117" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>964</v>
       </c>
@@ -12206,6 +12238,9 @@
       <c r="BQ118">
         <v>1903</v>
       </c>
+      <c r="BR118">
+        <v>1916</v>
+      </c>
       <c r="BV118" s="1" t="s">
         <v>958</v>
       </c>
@@ -12247,6 +12282,9 @@
       <c r="BO119" t="s">
         <v>2002</v>
       </c>
+      <c r="BR119">
+        <v>1922</v>
+      </c>
       <c r="BV119" s="1" t="s">
         <v>958</v>
       </c>
@@ -12272,7 +12310,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="120" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>988</v>
       </c>
@@ -12316,7 +12354,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="121" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>997</v>
       </c>
@@ -12387,6 +12425,12 @@
       <c r="BP122">
         <v>1854</v>
       </c>
+      <c r="BR122">
+        <v>1903</v>
+      </c>
+      <c r="BS122">
+        <v>1888</v>
+      </c>
       <c r="BV122" s="1" t="s">
         <v>991</v>
       </c>
@@ -12431,6 +12475,9 @@
       <c r="BQ123" t="s">
         <v>2008</v>
       </c>
+      <c r="BR123">
+        <v>1913</v>
+      </c>
       <c r="BV123" s="1" t="s">
         <v>991</v>
       </c>
@@ -12456,7 +12503,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="124" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1022</v>
       </c>
@@ -12501,7 +12548,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="125" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1031</v>
       </c>
@@ -12546,7 +12593,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="126" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1039</v>
       </c>
@@ -12564,7 +12611,9 @@
       </c>
       <c r="BQ126" s="1"/>
       <c r="BR126" s="1"/>
-      <c r="BS126" s="1"/>
+      <c r="BS126" s="1" t="s">
+        <v>2017</v>
+      </c>
       <c r="BT126" s="1"/>
       <c r="BU126" s="1"/>
       <c r="BV126" s="1" t="s">
@@ -12612,6 +12661,9 @@
       <c r="BQ127" t="s">
         <v>2009</v>
       </c>
+      <c r="BR127">
+        <v>1922</v>
+      </c>
       <c r="BV127" s="1" t="s">
         <v>1025</v>
       </c>
@@ -12637,7 +12689,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="128" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>1056</v>
       </c>
@@ -12682,7 +12734,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="129" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1066</v>
       </c>
@@ -12755,6 +12807,9 @@
       <c r="BQ130" t="s">
         <v>2010</v>
       </c>
+      <c r="BR130">
+        <v>1909</v>
+      </c>
       <c r="BV130" s="1" t="s">
         <v>1060</v>
       </c>
@@ -12780,7 +12835,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="131" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1081</v>
       </c>
@@ -12825,7 +12880,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="132" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1091</v>
       </c>
@@ -12898,6 +12953,9 @@
       <c r="BQ133">
         <v>1908</v>
       </c>
+      <c r="BR133">
+        <v>1909</v>
+      </c>
       <c r="BV133" s="1" t="s">
         <v>1085</v>
       </c>
@@ -12923,7 +12981,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="134" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1106</v>
       </c>
@@ -12968,7 +13026,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="135" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1115</v>
       </c>
@@ -13041,6 +13099,9 @@
       <c r="BQ136">
         <v>1882</v>
       </c>
+      <c r="BR136">
+        <v>1911</v>
+      </c>
       <c r="BV136" s="1" t="s">
         <v>1109</v>
       </c>
@@ -13066,7 +13127,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="137" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1130</v>
       </c>
@@ -13139,6 +13200,9 @@
       <c r="BQ138" t="s">
         <v>1996</v>
       </c>
+      <c r="BR138">
+        <v>1911</v>
+      </c>
       <c r="BV138" s="1" t="s">
         <v>1133</v>
       </c>
@@ -13164,7 +13228,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="139" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1147</v>
       </c>
@@ -13209,7 +13273,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="140" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1155</v>
       </c>
@@ -13254,7 +13318,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="141" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1164</v>
       </c>
@@ -13327,6 +13391,9 @@
       <c r="BP142">
         <v>1860</v>
       </c>
+      <c r="BQ142">
+        <v>1913</v>
+      </c>
       <c r="BV142" s="1" t="s">
         <v>1158</v>
       </c>
@@ -13397,7 +13464,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="144" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>1187</v>
       </c>
@@ -13466,8 +13533,12 @@
         <v>1857</v>
       </c>
       <c r="BQ145" s="1"/>
-      <c r="BR145" s="1"/>
-      <c r="BS145" s="1"/>
+      <c r="BR145" s="1" t="s">
+        <v>2010</v>
+      </c>
+      <c r="BS145" s="1" t="s">
+        <v>2018</v>
+      </c>
       <c r="BT145" s="1"/>
       <c r="BU145" s="1"/>
       <c r="BV145" s="1" t="s">
@@ -13515,6 +13586,9 @@
       <c r="BQ146">
         <v>1899</v>
       </c>
+      <c r="BR146">
+        <v>1919</v>
+      </c>
       <c r="BV146" s="1" t="s">
         <v>1191</v>
       </c>
@@ -13540,7 +13614,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="147" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1214</v>
       </c>
@@ -13584,7 +13658,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="148" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>1223</v>
       </c>
@@ -13655,6 +13729,9 @@
       <c r="BQ149">
         <v>1889</v>
       </c>
+      <c r="BR149">
+        <v>1913</v>
+      </c>
       <c r="BV149" s="1" t="s">
         <v>1217</v>
       </c>
@@ -13680,7 +13757,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="150" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1238</v>
       </c>
@@ -13725,7 +13802,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="151" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1247</v>
       </c>
@@ -13797,6 +13874,9 @@
       <c r="BQ152" t="s">
         <v>2014</v>
       </c>
+      <c r="BR152">
+        <v>1906</v>
+      </c>
       <c r="BV152" s="1" t="s">
         <v>1241</v>
       </c>
@@ -13822,7 +13902,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="153" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>1262</v>
       </c>
@@ -13871,7 +13951,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="154" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>1271</v>
       </c>
@@ -13939,7 +14019,9 @@
       <c r="BP155">
         <v>1850</v>
       </c>
-      <c r="BQ155" s="1"/>
+      <c r="BQ155" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="BR155" s="1"/>
       <c r="BS155" s="1"/>
       <c r="BT155" s="1"/>
@@ -13969,7 +14051,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="156" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>1288</v>
       </c>
@@ -14007,7 +14089,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="157" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>1297</v>
       </c>
@@ -14052,7 +14134,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="158" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>1306</v>
       </c>
@@ -14105,7 +14187,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="159" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>1313</v>
       </c>
@@ -14158,7 +14240,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="160" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>1320</v>
       </c>
@@ -14330,6 +14412,12 @@
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
+      <c r="BQ163">
+        <v>1902</v>
+      </c>
+      <c r="BR163">
+        <v>1911</v>
+      </c>
       <c r="BV163" s="1" t="s">
         <v>1323</v>
       </c>
@@ -14372,8 +14460,11 @@
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
-      <c r="BP164">
-        <v>1860</v>
+      <c r="BQ164" s="1" t="s">
+        <v>2023</v>
+      </c>
+      <c r="BR164">
+        <v>1918</v>
       </c>
       <c r="BV164" s="1" t="s">
         <v>1323</v>
@@ -14400,7 +14491,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="165" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1362</v>
       </c>
@@ -14445,7 +14536,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="166" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1371</v>
       </c>
@@ -14508,9 +14599,14 @@
       <c r="BM167" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="BO167" t="str">
-        <f t="shared" si="2"/>
-        <v>1836</v>
+      <c r="BO167" t="s">
+        <v>2024</v>
+      </c>
+      <c r="BQ167">
+        <v>1899</v>
+      </c>
+      <c r="BR167">
+        <v>1910</v>
       </c>
       <c r="BV167" s="1" t="s">
         <v>1365</v>
@@ -14537,7 +14633,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="168" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1387</v>
       </c>
@@ -14582,7 +14678,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="169" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>1396</v>
       </c>
@@ -14635,7 +14731,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="170" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1403</v>
       </c>
@@ -14730,7 +14826,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="172" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1419</v>
       </c>
@@ -14847,7 +14943,9 @@
       </c>
       <c r="BQ174" s="1"/>
       <c r="BR174" s="1"/>
-      <c r="BS174" s="1"/>
+      <c r="BS174" s="1" t="s">
+        <v>2019</v>
+      </c>
       <c r="BT174" s="1"/>
       <c r="BU174" s="1"/>
       <c r="BV174" s="1" t="s">
@@ -14875,7 +14973,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="175" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1444</v>
       </c>
@@ -14920,7 +15018,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="176" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1454</v>
       </c>
@@ -15015,7 +15113,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="178" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1471</v>
       </c>
@@ -15060,7 +15158,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="179" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1480</v>
       </c>
@@ -15155,7 +15253,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="181" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1495</v>
       </c>
@@ -15200,7 +15298,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="182" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>1504</v>
       </c>
@@ -15348,7 +15446,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="185" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1527</v>
       </c>
@@ -15393,7 +15491,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="186" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1536</v>
       </c>
@@ -15488,7 +15586,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="188" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>1551</v>
       </c>
@@ -15526,7 +15624,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="189" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1561</v>
       </c>
@@ -15663,7 +15761,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="192" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>1587</v>
       </c>
@@ -15708,7 +15806,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="193" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>1597</v>
       </c>
@@ -15803,7 +15901,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="195" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1612</v>
       </c>
@@ -15848,7 +15946,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="196" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1621</v>
       </c>
@@ -15901,7 +15999,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="197" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>1628</v>
       </c>
@@ -15996,7 +16094,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="199" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1644</v>
       </c>
@@ -16041,7 +16139,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="200" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1653</v>
       </c>
@@ -16136,7 +16234,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="202" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1668</v>
       </c>
@@ -16234,7 +16332,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="204" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>1684</v>
       </c>
@@ -16279,7 +16377,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="205" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1693</v>
       </c>
@@ -16374,7 +16472,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="207" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>1710</v>
       </c>
@@ -16419,7 +16517,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="208" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>1718</v>
       </c>
@@ -16514,7 +16612,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="210" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>1734</v>
       </c>
@@ -16559,7 +16657,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="211" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>1743</v>
       </c>
@@ -16612,7 +16710,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="212" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>1750</v>
       </c>
@@ -16637,7 +16735,9 @@
       </c>
       <c r="BQ212" s="1"/>
       <c r="BR212" s="1"/>
-      <c r="BS212" s="1"/>
+      <c r="BS212" s="1" t="s">
+        <v>2020</v>
+      </c>
       <c r="BT212" s="1"/>
       <c r="BU212" s="1"/>
       <c r="BV212" s="1" t="s">
@@ -16707,7 +16807,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="214" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>1766</v>
       </c>
@@ -16752,7 +16852,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="215" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>1775</v>
       </c>
@@ -16805,7 +16905,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="216" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>1782</v>
       </c>
@@ -16858,7 +16958,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="217" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>1790</v>
       </c>
@@ -16903,7 +17003,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="218" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>1799</v>
       </c>
@@ -16956,7 +17056,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="219" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>1806</v>
       </c>
@@ -16981,7 +17081,9 @@
       </c>
       <c r="BQ219" s="1"/>
       <c r="BR219" s="1"/>
-      <c r="BS219" s="1"/>
+      <c r="BS219" s="1" t="s">
+        <v>2021</v>
+      </c>
       <c r="BT219" s="1"/>
       <c r="BU219" s="1"/>
       <c r="BV219" s="1" t="s">
@@ -17009,7 +17111,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="220" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1815</v>
       </c>
@@ -17054,7 +17156,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="221" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1823</v>
       </c>
@@ -17149,7 +17251,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="223" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>1838</v>
       </c>
@@ -17202,7 +17304,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="224" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>1848</v>
       </c>
@@ -17247,7 +17349,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="225" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1848</v>
       </c>
@@ -17292,7 +17394,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="226" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>1862</v>
       </c>
@@ -17345,7 +17447,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="227" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1870</v>
       </c>
@@ -17370,7 +17472,9 @@
       </c>
       <c r="BQ227" s="1"/>
       <c r="BR227" s="1"/>
-      <c r="BS227" s="1"/>
+      <c r="BS227" s="1" t="s">
+        <v>2022</v>
+      </c>
       <c r="BT227" s="1"/>
       <c r="BU227" s="1"/>
       <c r="BV227" s="1" t="s">
@@ -17398,7 +17502,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="228" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>1878</v>
       </c>
@@ -17488,6 +17592,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CH228">
+    <filterColumn colId="64">
+      <customFilters>
+        <customFilter val="*herzien*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/db/tmk/bb2.xlsx
+++ b/db/tmk/bb2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\RubymineProjects\mapseries\db\tmk\"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3019" uniqueCount="2025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="2041">
   <si>
     <t>Verklaring 1864</t>
   </si>
@@ -6194,6 +6194,54 @@
   </si>
   <si>
     <t>1836 en 1856</t>
+  </si>
+  <si>
+    <t>1837 - 1838</t>
+  </si>
+  <si>
+    <t>1838 en 1836</t>
+  </si>
+  <si>
+    <t>18236 en 1843</t>
+  </si>
+  <si>
+    <t>1890 en 1891</t>
+  </si>
+  <si>
+    <t>1893 en 1894</t>
+  </si>
+  <si>
+    <t>1838 en 1839</t>
+  </si>
+  <si>
+    <t>1837-1843</t>
+  </si>
+  <si>
+    <t>1909 en 1910</t>
+  </si>
+  <si>
+    <t>1908 en 1909</t>
+  </si>
+  <si>
+    <t>1837 en 1842</t>
+  </si>
+  <si>
+    <t>1891</t>
+  </si>
+  <si>
+    <t>1882, 1883 en 1886</t>
+  </si>
+  <si>
+    <t>1878 - 1887</t>
+  </si>
+  <si>
+    <t>1878 -1887</t>
+  </si>
+  <si>
+    <t>1890-1891 en 1892</t>
+  </si>
+  <si>
+    <t>1890 1891 en 1892</t>
   </si>
 </sst>
 </file>
@@ -6553,13 +6601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:CH228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BL1" sqref="BL1"/>
-      <selection pane="bottomLeft" activeCell="BR167" sqref="BR167"/>
+      <selection pane="bottomLeft" activeCell="BU80" sqref="BU80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6597,7 +6645,7 @@
     <col min="41" max="62" width="0" hidden="1" customWidth="1"/>
     <col min="63" max="63" width="23.85546875" hidden="1" customWidth="1"/>
     <col min="64" max="64" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="175.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="168.7109375" customWidth="1"/>
     <col min="66" max="66" width="21.42578125" customWidth="1"/>
     <col min="67" max="67" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="11" bestFit="1" customWidth="1"/>
@@ -7935,7 +7983,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>229</v>
       </c>
@@ -9423,6 +9471,12 @@
       <c r="BQ59">
         <v>1902</v>
       </c>
+      <c r="BR59">
+        <v>1905</v>
+      </c>
+      <c r="BU59">
+        <v>1909</v>
+      </c>
       <c r="BV59" s="1" t="s">
         <v>470</v>
       </c>
@@ -9467,6 +9521,12 @@
       </c>
       <c r="BQ60">
         <v>1902</v>
+      </c>
+      <c r="BR60">
+        <v>1916</v>
+      </c>
+      <c r="BU60">
+        <v>1918</v>
       </c>
       <c r="BV60" s="1" t="s">
         <v>470</v>
@@ -9613,6 +9673,12 @@
       <c r="BQ63" t="s">
         <v>1995</v>
       </c>
+      <c r="BR63">
+        <v>1916</v>
+      </c>
+      <c r="BU63">
+        <v>1918</v>
+      </c>
       <c r="BV63" s="1" t="s">
         <v>503</v>
       </c>
@@ -9756,6 +9822,12 @@
       <c r="BQ66">
         <v>1904</v>
       </c>
+      <c r="BR66">
+        <v>1908</v>
+      </c>
+      <c r="BU66">
+        <v>1909</v>
+      </c>
       <c r="BV66" s="1" t="s">
         <v>529</v>
       </c>
@@ -9899,6 +9971,9 @@
       <c r="BQ69">
         <v>1904</v>
       </c>
+      <c r="BU69">
+        <v>1909</v>
+      </c>
       <c r="BV69" s="1" t="s">
         <v>552</v>
       </c>
@@ -10039,6 +10114,12 @@
       <c r="BQ72">
         <v>1900</v>
       </c>
+      <c r="BR72">
+        <v>1913</v>
+      </c>
+      <c r="BU72">
+        <v>1914</v>
+      </c>
       <c r="BV72" s="1" t="s">
         <v>577</v>
       </c>
@@ -10184,6 +10265,12 @@
       <c r="BQ75">
         <v>1902</v>
       </c>
+      <c r="BR75">
+        <v>1916</v>
+      </c>
+      <c r="BU75">
+        <v>1917</v>
+      </c>
       <c r="BV75" s="1" t="s">
         <v>602</v>
       </c>
@@ -10228,6 +10315,9 @@
       </c>
       <c r="BQ76">
         <v>1923</v>
+      </c>
+      <c r="BU76">
+        <v>1926</v>
       </c>
       <c r="BV76" s="1" t="s">
         <v>602</v>
@@ -10425,6 +10515,9 @@
       <c r="BQ80">
         <v>1895</v>
       </c>
+      <c r="BR80">
+        <v>1914</v>
+      </c>
       <c r="BV80" s="1" t="s">
         <v>637</v>
       </c>
@@ -10613,6 +10706,9 @@
       <c r="BQ84" t="s">
         <v>2005</v>
       </c>
+      <c r="BR84">
+        <v>1919</v>
+      </c>
       <c r="BV84" s="1" t="s">
         <v>668</v>
       </c>
@@ -10918,7 +11014,9 @@
       <c r="BQ90" s="1"/>
       <c r="BR90" s="1"/>
       <c r="BS90" s="1"/>
-      <c r="BT90" s="1"/>
+      <c r="BT90" s="1" t="s">
+        <v>609</v>
+      </c>
       <c r="BU90" s="1"/>
       <c r="BV90" s="1" t="s">
         <v>727</v>
@@ -10963,6 +11061,9 @@
         <v>1851</v>
       </c>
       <c r="BQ91">
+        <v>1914</v>
+      </c>
+      <c r="BR91">
         <v>1914</v>
       </c>
       <c r="BV91" s="1" t="s">
@@ -11108,6 +11209,9 @@
       <c r="BQ94">
         <v>1902</v>
       </c>
+      <c r="BR94">
+        <v>1906</v>
+      </c>
       <c r="BV94" s="1" t="s">
         <v>759</v>
       </c>
@@ -11347,6 +11451,9 @@
       <c r="BQ99" t="s">
         <v>2006</v>
       </c>
+      <c r="BR99">
+        <v>1917</v>
+      </c>
       <c r="BV99" s="1" t="s">
         <v>795</v>
       </c>
@@ -11487,6 +11594,9 @@
       <c r="BQ102">
         <v>1892</v>
       </c>
+      <c r="BR102">
+        <v>1908</v>
+      </c>
       <c r="BV102" s="1" t="s">
         <v>829</v>
       </c>
@@ -11530,6 +11640,9 @@
       </c>
       <c r="BQ103">
         <v>1892</v>
+      </c>
+      <c r="BR103">
+        <v>1912</v>
       </c>
       <c r="BV103" s="1" t="s">
         <v>829</v>
@@ -11674,6 +11787,9 @@
       <c r="BQ106">
         <v>1906</v>
       </c>
+      <c r="BR106">
+        <v>1908</v>
+      </c>
       <c r="BV106" s="1" t="s">
         <v>862</v>
       </c>
@@ -11719,6 +11835,9 @@
       <c r="BQ107">
         <v>1910</v>
       </c>
+      <c r="BR107">
+        <v>1912</v>
+      </c>
       <c r="BV107" s="1" t="s">
         <v>862</v>
       </c>
@@ -11809,6 +11928,9 @@
       <c r="BP109">
         <v>1858</v>
       </c>
+      <c r="BT109" t="s">
+        <v>2036</v>
+      </c>
       <c r="BV109" s="1" t="s">
         <v>895</v>
       </c>
@@ -11854,6 +11976,9 @@
       <c r="BQ110">
         <v>1886</v>
       </c>
+      <c r="BR110">
+        <v>1912</v>
+      </c>
       <c r="BV110" s="1" t="s">
         <v>895</v>
       </c>
@@ -11898,6 +12023,9 @@
       </c>
       <c r="BQ111">
         <v>1812</v>
+      </c>
+      <c r="BR111">
+        <v>1914</v>
       </c>
       <c r="BV111" s="1" t="s">
         <v>895</v>
@@ -12095,6 +12223,9 @@
       <c r="BQ115" t="s">
         <v>2007</v>
       </c>
+      <c r="BR115">
+        <v>1916</v>
+      </c>
       <c r="BV115" s="1" t="s">
         <v>928</v>
       </c>
@@ -12406,7 +12537,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="122" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1006</v>
       </c>
@@ -12608,6 +12739,9 @@
       </c>
       <c r="BN126" s="1" t="s">
         <v>1040</v>
+      </c>
+      <c r="BP126">
+        <v>1895</v>
       </c>
       <c r="BQ126" s="1"/>
       <c r="BR126" s="1"/>
@@ -13371,7 +13505,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="142" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1171</v>
       </c>
@@ -13509,7 +13643,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="145" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>1197</v>
       </c>
@@ -13973,7 +14107,9 @@
       <c r="BQ154" s="1"/>
       <c r="BR154" s="1"/>
       <c r="BS154" s="1"/>
-      <c r="BT154" s="1"/>
+      <c r="BT154" s="1" t="s">
+        <v>2037</v>
+      </c>
       <c r="BU154" s="1"/>
       <c r="BV154" s="1" t="s">
         <v>1265</v>
@@ -14000,7 +14136,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="155" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>1279</v>
       </c>
@@ -14024,7 +14160,9 @@
       </c>
       <c r="BR155" s="1"/>
       <c r="BS155" s="1"/>
-      <c r="BT155" s="1"/>
+      <c r="BT155" s="1" t="s">
+        <v>2038</v>
+      </c>
       <c r="BU155" s="1"/>
       <c r="BV155" s="1" t="s">
         <v>1265</v>
@@ -14285,7 +14423,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="161" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>1329</v>
       </c>
@@ -14340,7 +14478,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="162" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>1337</v>
       </c>
@@ -14555,6 +14693,9 @@
       <c r="BO166" t="str">
         <f t="shared" si="2"/>
         <v>1836</v>
+      </c>
+      <c r="BP166">
+        <v>1860</v>
       </c>
       <c r="BQ166" s="1"/>
       <c r="BR166" s="1"/>
@@ -14797,9 +14938,14 @@
       <c r="BM171" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="BO171" t="str">
-        <f t="shared" si="2"/>
-        <v>1838</v>
+      <c r="BO171" t="s">
+        <v>2026</v>
+      </c>
+      <c r="BQ171">
+        <v>1893</v>
+      </c>
+      <c r="BR171">
+        <v>1924</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>1390</v>
@@ -14871,7 +15017,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="173" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1428</v>
       </c>
@@ -14887,11 +15033,12 @@
       <c r="BN173" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="BO173" t="str">
-        <f t="shared" si="2"/>
-        <v>1837</v>
-      </c>
-      <c r="BQ173" s="1"/>
+      <c r="BO173" t="s">
+        <v>2025</v>
+      </c>
+      <c r="BQ173" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="BR173" s="1"/>
       <c r="BS173" s="1"/>
       <c r="BT173" s="1"/>
@@ -14921,7 +15068,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="174" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1436</v>
       </c>
@@ -14937,12 +15084,15 @@
       <c r="BN174" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="BO174" t="str">
-        <f t="shared" si="2"/>
-        <v>1837</v>
-      </c>
-      <c r="BQ174" s="1"/>
-      <c r="BR174" s="1"/>
+      <c r="BO174" t="s">
+        <v>2025</v>
+      </c>
+      <c r="BQ174" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="BR174" s="1" t="s">
+        <v>1807</v>
+      </c>
       <c r="BS174" s="1" t="s">
         <v>2019</v>
       </c>
@@ -15044,7 +15194,9 @@
       <c r="BQ176" s="1"/>
       <c r="BR176" s="1"/>
       <c r="BS176" s="1"/>
-      <c r="BT176" s="1"/>
+      <c r="BT176" s="1" t="s">
+        <v>2028</v>
+      </c>
       <c r="BU176" s="1"/>
       <c r="BV176" s="1" t="s">
         <v>1448</v>
@@ -15084,9 +15236,17 @@
       <c r="BM177" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="BO177" t="str">
-        <f t="shared" si="2"/>
-        <v>1836</v>
+      <c r="BO177" t="s">
+        <v>2027</v>
+      </c>
+      <c r="BQ177" s="1" t="s">
+        <v>2028</v>
+      </c>
+      <c r="BR177">
+        <v>1913</v>
+      </c>
+      <c r="BU177">
+        <v>1916</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>1448</v>
@@ -15228,6 +15388,12 @@
         <f t="shared" si="2"/>
         <v>1857</v>
       </c>
+      <c r="BQ180">
+        <v>1909</v>
+      </c>
+      <c r="BU180">
+        <v>1914</v>
+      </c>
       <c r="BV180" s="1" t="s">
         <v>1474</v>
       </c>
@@ -15351,7 +15517,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="183" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1511</v>
       </c>
@@ -15421,6 +15587,15 @@
         <f t="shared" si="2"/>
         <v>1856</v>
       </c>
+      <c r="BQ184">
+        <v>1912</v>
+      </c>
+      <c r="BR184">
+        <v>1918</v>
+      </c>
+      <c r="BU184">
+        <v>1923</v>
+      </c>
       <c r="BV184" s="1" t="s">
         <v>1498</v>
       </c>
@@ -15557,9 +15732,17 @@
       <c r="BM187" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="BO187" t="str">
-        <f t="shared" si="3"/>
-        <v>1836</v>
+      <c r="BO187" t="s">
+        <v>2024</v>
+      </c>
+      <c r="BQ187">
+        <v>1908</v>
+      </c>
+      <c r="BR187">
+        <v>1913</v>
+      </c>
+      <c r="BU187">
+        <v>1914</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>1530</v>
@@ -15690,9 +15873,17 @@
       <c r="BM190" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="BO190" t="str">
-        <f t="shared" si="3"/>
-        <v>1838</v>
+      <c r="BO190" t="s">
+        <v>2030</v>
+      </c>
+      <c r="BQ190" t="s">
+        <v>2029</v>
+      </c>
+      <c r="BR190">
+        <v>1904</v>
+      </c>
+      <c r="BU190">
+        <v>1910</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>1555</v>
@@ -15732,9 +15923,17 @@
       <c r="BM191" s="1" t="s">
         <v>1581</v>
       </c>
-      <c r="BO191" t="str">
-        <f t="shared" si="3"/>
-        <v>1838</v>
+      <c r="BO191" t="s">
+        <v>2030</v>
+      </c>
+      <c r="BQ191" t="s">
+        <v>2029</v>
+      </c>
+      <c r="BR191">
+        <v>1920</v>
+      </c>
+      <c r="BU191">
+        <v>1921</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>1555</v>
@@ -15876,6 +16075,15 @@
         <f t="shared" si="3"/>
         <v>1840</v>
       </c>
+      <c r="BQ194">
+        <v>1898</v>
+      </c>
+      <c r="BR194">
+        <v>1912</v>
+      </c>
+      <c r="BU194">
+        <v>1912</v>
+      </c>
       <c r="BV194" s="1" t="s">
         <v>1591</v>
       </c>
@@ -16025,7 +16233,9 @@
       <c r="BQ197" s="1"/>
       <c r="BR197" s="1"/>
       <c r="BS197" s="1"/>
-      <c r="BT197" s="1"/>
+      <c r="BT197" s="1" t="s">
+        <v>2039</v>
+      </c>
       <c r="BU197" s="1"/>
       <c r="BV197" s="1" t="s">
         <v>1615</v>
@@ -16065,9 +16275,14 @@
       <c r="BM198" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="BO198" t="str">
-        <f t="shared" si="3"/>
-        <v>1837</v>
+      <c r="BO198" t="s">
+        <v>2031</v>
+      </c>
+      <c r="BQ198">
+        <v>1917</v>
+      </c>
+      <c r="BU198">
+        <v>1920</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>1615</v>
@@ -16209,6 +16424,12 @@
         <f t="shared" si="3"/>
         <v>1857</v>
       </c>
+      <c r="BQ201" t="s">
+        <v>2032</v>
+      </c>
+      <c r="BU201">
+        <v>1916</v>
+      </c>
       <c r="BV201" s="1" t="s">
         <v>1647</v>
       </c>
@@ -16279,7 +16500,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="203" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:86" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1676</v>
       </c>
@@ -16302,7 +16523,9 @@
       <c r="BP203">
         <v>1863</v>
       </c>
-      <c r="BQ203" s="1"/>
+      <c r="BQ203" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="BR203" s="1"/>
       <c r="BS203" s="1"/>
       <c r="BT203" s="1"/>
@@ -16447,6 +16670,15 @@
         <f t="shared" si="3"/>
         <v>1856</v>
       </c>
+      <c r="BQ206" t="s">
+        <v>2033</v>
+      </c>
+      <c r="BR206">
+        <v>1913</v>
+      </c>
+      <c r="BU206">
+        <v>1914</v>
+      </c>
       <c r="BV206" s="1" t="s">
         <v>1687</v>
       </c>
@@ -16587,6 +16819,12 @@
         <f t="shared" si="3"/>
         <v>1861</v>
       </c>
+      <c r="BQ209">
+        <v>1911</v>
+      </c>
+      <c r="BU209">
+        <v>1914</v>
+      </c>
       <c r="BV209" s="1" t="s">
         <v>1712</v>
       </c>
@@ -16778,9 +17016,17 @@
       <c r="BM213" s="1" t="s">
         <v>1760</v>
       </c>
-      <c r="BO213" t="str">
-        <f t="shared" si="3"/>
-        <v>1837</v>
+      <c r="BO213" t="s">
+        <v>2034</v>
+      </c>
+      <c r="BQ213">
+        <v>1898</v>
+      </c>
+      <c r="BR213">
+        <v>1914</v>
+      </c>
+      <c r="BU213">
+        <v>1914</v>
       </c>
       <c r="BV213" s="1" t="s">
         <v>1737</v>
@@ -16931,7 +17177,9 @@
       <c r="BQ216" s="1"/>
       <c r="BR216" s="1"/>
       <c r="BS216" s="1"/>
-      <c r="BT216" s="1"/>
+      <c r="BT216" s="1" t="s">
+        <v>2040</v>
+      </c>
       <c r="BU216" s="1"/>
       <c r="BV216" s="1" t="s">
         <v>1769</v>
@@ -17226,6 +17474,12 @@
         <f t="shared" si="3"/>
         <v>1842</v>
       </c>
+      <c r="BR222">
+        <v>1907</v>
+      </c>
+      <c r="BU222">
+        <v>1910</v>
+      </c>
       <c r="BV222" s="1" t="s">
         <v>1817</v>
       </c>
@@ -17420,7 +17674,9 @@
       <c r="BQ226" s="1"/>
       <c r="BR226" s="1"/>
       <c r="BS226" s="1"/>
-      <c r="BT226" s="1"/>
+      <c r="BT226" s="1" t="s">
+        <v>2035</v>
+      </c>
       <c r="BU226" s="1"/>
       <c r="BV226" s="1" t="s">
         <v>1850</v>
@@ -17595,7 +17851,7 @@
   <autoFilter ref="A1:CH228">
     <filterColumn colId="64">
       <customFilters>
-        <customFilter val="*herzien*"/>
+        <customFilter val="*uitgave*"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
@@ -17605,6 +17861,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CI1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
